--- a/data/unchecked/manual_collect/china/liaoning/liaoningCaseStatistics_20200708.xlsx
+++ b/data/unchecked/manual_collect/china/liaoning/liaoningCaseStatistics_20200708.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\liaoning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57BFC00-CAD2-40C9-A24F-11E8BE57F1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B2533-D625-4FAB-A9C7-DA194068C3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10839,14 +10839,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AE31" sqref="AE2:AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="12" customWidth="1"/>
     <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
